--- a/backend/web/example/paid.xlsx
+++ b/backend/web/example/paid.xlsx
@@ -35,12 +35,6 @@
     <t>#CCVN0000211</t>
   </si>
   <si>
-    <t>GHK098123</t>
-  </si>
-  <si>
-    <t>GHN013942</t>
-  </si>
-  <si>
     <t>Mã vận đơn của đối tác vận chuyể</t>
   </si>
   <si>
@@ -54,6 +48,12 @@
   </si>
   <si>
     <t>Phí vận chuyển</t>
+  </si>
+  <si>
+    <t>BM00019</t>
+  </si>
+  <si>
+    <t>D968124</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -210,11 +210,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -505,7 +505,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="8">
         <v>43881</v>
@@ -564,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C3" s="8">
         <v>43881</v>

--- a/backend/web/example/paid.xlsx
+++ b/backend/web/example/paid.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\website\podv3\backend\web\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="paid" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Contact code</t>
   </si>
   <si>
-    <t>#CCVN0000000</t>
-  </si>
-  <si>
-    <t>#CCVN0000211</t>
-  </si>
-  <si>
     <t>Mã vận đơn của đối tác vận chuyể</t>
   </si>
   <si>
@@ -47,13 +41,40 @@
     <t>Phí thu hộ</t>
   </si>
   <si>
-    <t>Phí vận chuyển</t>
-  </si>
-  <si>
     <t>BM00019</t>
   </si>
   <si>
     <t>D968124</t>
+  </si>
+  <si>
+    <t>#CCVN0002212</t>
+  </si>
+  <si>
+    <t>#CCVN0002213</t>
+  </si>
+  <si>
+    <t>#CCVN0002240</t>
+  </si>
+  <si>
+    <t>#CCVN0002256</t>
+  </si>
+  <si>
+    <t>#CCVN0002261</t>
+  </si>
+  <si>
+    <t>#CCVN0002247</t>
+  </si>
+  <si>
+    <t>D968125</t>
+  </si>
+  <si>
+    <t>D968126</t>
+  </si>
+  <si>
+    <t>D968127</t>
+  </si>
+  <si>
+    <t>D968128</t>
   </si>
 </sst>
 </file>
@@ -116,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -180,23 +201,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,7 +229,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,38 +522,34 @@
     <col min="1" max="1" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="4" max="4" width="17.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="8">
         <v>43881</v>
@@ -555,80 +560,114 @@
       <c r="E2" s="11">
         <v>5000</v>
       </c>
-      <c r="F2" s="12">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="D3" s="11">
-        <v>40000</v>
+        <v>30000</v>
       </c>
       <c r="E3" s="11">
         <v>5000</v>
       </c>
-      <c r="F3" s="12">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43883</v>
+      </c>
+      <c r="D4" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8">
+        <v>43884</v>
+      </c>
+      <c r="D5" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>43885</v>
+      </c>
+      <c r="D6" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8">
+        <v>43886</v>
+      </c>
+      <c r="D7" s="11">
+        <v>30000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="8"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="8"/>
